--- a/Project2/MetodosEJB.xlsx
+++ b/Project2/MetodosEJB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="20112" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Pagina</t>
   </si>
@@ -60,9 +60,6 @@
     <t>addBankTellerUser(userID, bankteller)</t>
   </si>
   <si>
-    <t>adiciona e associa ao user</t>
-  </si>
-  <si>
     <t>user home</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>unfollowCompaniesUser(userID, companyID)</t>
   </si>
   <si>
-    <t>getSubscribedCompanies(userID, companyID)</t>
-  </si>
-  <si>
     <t>List companies</t>
   </si>
   <si>
@@ -124,6 +118,80 @@
   </si>
   <si>
     <t>listUserByCompany(companyID)</t>
+  </si>
+  <si>
+    <t>Exists</t>
+  </si>
+  <si>
+    <t>IUserBean-&gt;getUser(Long id)</t>
+  </si>
+  <si>
+    <t>IUserBean-&gt;getUser(String name)</t>
+  </si>
+  <si>
+    <t>IUserBean-&gt;updateUser(User user) 
+Actualiza os dados mais tem os campos de password, subscribed companies, etc.</t>
+  </si>
+  <si>
+    <t>Test Pending</t>
+  </si>
+  <si>
+    <t>Isecurity-&gt;UpdateUserCredentials(Credentials credentials)</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Filipe</t>
+  </si>
+  <si>
+    <t>getBankTellerList(String filterPattern) and 
+getBankTellerNameList(String filterpattern)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temos getBankTeller(Long userId). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temos setBankTeller(Long userId, Long companyId)
+</t>
+  </si>
+  <si>
+    <t>adiciona e associa ao user. 
+setBankTeller(Long userId, BankTeller bankTeller)</t>
+  </si>
+  <si>
+    <t>See Comments</t>
+  </si>
+  <si>
+    <t>getSubscribedCompanies(userID)</t>
+  </si>
+  <si>
+    <t>ISecurity-&gt;CheckUser(Credentials credentials)</t>
+  </si>
+  <si>
+    <t>Temos ISecurity-&gt;RegisterUser(Credentials credentials).
+Não passamos dados do utilizador</t>
+  </si>
+  <si>
+    <t>getfollowedCompanyList(Long id)</t>
+  </si>
+  <si>
+    <t>unfollowCompany(Long userId, Long companyId)</t>
+  </si>
+  <si>
+    <t>followCompany(Long userId, Long companyId)</t>
+  </si>
+  <si>
+    <t>getCompany(Long companyId)</t>
+  </si>
+  <si>
+    <t>IAdmin-&gt;getUserList(int sortType, int ageThreshold)</t>
+  </si>
+  <si>
+    <t>IAdmin-&gt;getCompanyList(String filterPattern, int sortType);</t>
+  </si>
+  <si>
+    <t>getUserFollowCompanyList(Long companyId, int sortType, int ageThreshold);</t>
   </si>
 </sst>
 </file>
@@ -159,8 +227,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,13 +247,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+  <autoFilter ref="A1:E32"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Pagina"/>
     <tableColumn id="2" name="Metodos EJB"/>
     <tableColumn id="3" name="Status"/>
     <tableColumn id="4" name="Obesrvação"/>
+    <tableColumn id="5" name="Assignee"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -475,20 +547,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,169 +574,292 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +876,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -692,7 +888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project2/MetodosEJB.xlsx
+++ b/Project2/MetodosEJB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Pagina</t>
   </si>
@@ -131,9 +131,6 @@
   <si>
     <t>IUserBean-&gt;updateUser(User user) 
 Actualiza os dados mais tem os campos de password, subscribed companies, etc.</t>
-  </si>
-  <si>
-    <t>Test Pending</t>
   </si>
   <si>
     <t>Isecurity-&gt;UpdateUserCredentials(Credentials credentials)</t>
@@ -549,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -591,7 +588,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>37</v>
@@ -642,13 +639,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -661,10 +658,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -672,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -683,10 +680,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -699,10 +696,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -712,13 +709,13 @@
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -729,7 +726,7 @@
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -745,7 +742,7 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -756,7 +753,7 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -783,7 +780,7 @@
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -796,10 +793,10 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -826,7 +823,7 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -837,7 +834,7 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -848,7 +845,7 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -859,7 +856,7 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Project2/MetodosEJB.xlsx
+++ b/Project2/MetodosEJB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="20112" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="20112" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>Pagina</t>
   </si>
@@ -189,14 +189,94 @@
   </si>
   <si>
     <t>getUserFollowCompanyList(Long companyId, int sortType, int ageThreshold);</t>
+  </si>
+  <si>
+    <t>Tarefas</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>passar componente credenciais para back office (login)</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>cleanup ejb</t>
+  </si>
+  <si>
+    <t>rever o bank teller (address e problema de uma função; ver com filipe)</t>
+  </si>
+  <si>
+    <t>renomear funções ejb</t>
+  </si>
+  <si>
+    <t>permissões ejb (roles admin e user)</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>search pattern nas companhias</t>
+  </si>
+  <si>
+    <t>Relatorio</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>design decisions</t>
+  </si>
+  <si>
+    <t>deploy instructions</t>
+  </si>
+  <si>
+    <t>responsibilities (tabela com packages)</t>
+  </si>
+  <si>
+    <t>diagrama estático (incluir jpa, ejb, etc)</t>
+  </si>
+  <si>
+    <t>diagrama dinâmico (incluir jpa, ejb, etc)</t>
+  </si>
+  <si>
+    <t>package deploy</t>
+  </si>
+  <si>
+    <t>comentários</t>
+  </si>
+  <si>
+    <t>validações ejb (parametros, etc)</t>
+  </si>
+  <si>
+    <t>bank teller (parametros, etc)</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Enviar lista de ideias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -224,11 +304,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -848,7 +930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -869,13 +951,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="59.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Project2/MetodosEJB.xlsx
+++ b/Project2/MetodosEJB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>Pagina</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Enviar lista de ideias</t>
+  </si>
+  <si>
+    <t>Visto com o João e fica assim</t>
   </si>
 </sst>
 </file>
@@ -954,7 +957,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,8 +1022,14 @@
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1042,6 +1051,9 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>40</v>

--- a/Project2/MetodosEJB.xlsx
+++ b/Project2/MetodosEJB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="20112" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19665" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>Pagina</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>Visto com o João e fica assim</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Não encontrei nada que tivesse ser renomeado</t>
   </si>
 </sst>
 </file>
@@ -635,15 +644,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,12 +669,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -676,7 +685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -687,12 +696,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -703,7 +712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -714,12 +723,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -733,12 +742,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -749,7 +758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -760,7 +769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -771,12 +780,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -787,12 +796,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -803,7 +812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -814,12 +823,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -830,7 +839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -841,7 +850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -852,12 +861,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -868,12 +877,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -884,12 +893,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -900,7 +909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -911,7 +920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -922,7 +931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -933,7 +942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -957,19 +966,19 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="59.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -983,7 +992,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -991,15 +1000,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
@@ -1007,7 +1019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -1032,15 +1044,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1059,7 +1074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -1067,7 +1082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1075,20 +1090,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>72</v>
       </c>
@@ -1096,7 +1114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
@@ -1107,7 +1125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
@@ -1115,7 +1133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
@@ -1135,7 +1153,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project2/MetodosEJB.xlsx
+++ b/Project2/MetodosEJB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="84">
   <si>
     <t>Pagina</t>
   </si>
@@ -269,10 +269,11 @@
     <t>review</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>Não encontrei nada que tivesse ser renomeado</t>
+  </si>
+  <si>
+    <t>Não estou a conseguir fazer os mapeamentos para as roles do jboss
+por falta de tempo vou me dedicar ao relatorio</t>
   </si>
 </sst>
 </file>
@@ -316,13 +317,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,7 +970,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,20 +996,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>68</v>
@@ -1052,15 +1057,18 @@
         <v>68</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1085,6 +1093,9 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>60</v>

--- a/Project2/MetodosEJB.xlsx
+++ b/Project2/MetodosEJB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>Pagina</t>
   </si>
@@ -274,6 +274,9 @@
   <si>
     <t>Não estou a conseguir fazer os mapeamentos para as roles do jboss
 por falta de tempo vou me dedicar ao relatorio</t>
+  </si>
+  <si>
+    <t>não percebi bem a separção entre pagesdata e pages</t>
   </si>
 </sst>
 </file>
@@ -969,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,6 +1056,9 @@
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>68</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
@@ -1148,8 +1154,14 @@
       <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="B24" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Project2/MetodosEJB.xlsx
+++ b/Project2/MetodosEJB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19665" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="19668" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
   <si>
     <t>Pagina</t>
   </si>
@@ -651,15 +651,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,12 +676,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -692,7 +692,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -703,12 +703,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -719,7 +719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -730,12 +730,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -749,12 +749,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -765,7 +765,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -776,7 +776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -787,12 +787,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -803,12 +803,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -819,7 +819,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -830,12 +830,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -846,7 +846,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -857,7 +857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -868,12 +868,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -884,12 +884,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -900,12 +900,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -916,7 +916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -927,7 +927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -938,7 +938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -949,7 +949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -972,20 +972,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="59.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -999,7 +999,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
@@ -1019,15 +1019,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1107,12 +1110,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>72</v>
       </c>
@@ -1131,10 +1134,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
@@ -1176,7 +1182,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project2/MetodosEJB.xlsx
+++ b/Project2/MetodosEJB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="19668" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19665" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
   <si>
     <t>Pagina</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>não percebi bem a separção entre pagesdata e pages</t>
+  </si>
+  <si>
+    <t>O que era isto ??</t>
+  </si>
+  <si>
+    <t>Falta Legenda</t>
   </si>
 </sst>
 </file>
@@ -651,15 +657,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,12 +682,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -692,7 +698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -703,12 +709,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -719,7 +725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -730,12 +736,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -749,12 +755,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -765,7 +771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -776,7 +782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -787,12 +793,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -803,12 +809,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -819,7 +825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -830,12 +836,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -846,7 +852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -857,7 +863,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -868,12 +874,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -884,12 +890,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -900,12 +906,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -916,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -927,7 +933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -938,7 +944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -949,7 +955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -973,19 +979,19 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="59.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -999,16 +1005,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
@@ -1030,7 +1038,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -1069,7 +1077,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1080,7 +1088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1091,15 +1099,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1110,12 +1121,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
@@ -1126,15 +1137,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
@@ -1148,15 +1165,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
@@ -1182,7 +1202,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project2/MetodosEJB.xlsx
+++ b/Project2/MetodosEJB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>Pagina</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Visto com o João e fica assim</t>
-  </si>
-  <si>
-    <t>review</t>
   </si>
   <si>
     <t>Não encontrei nada que tivesse ser renomeado</t>
@@ -978,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1010,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,7 +1071,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1085,7 +1082,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -1131,7 +1128,7 @@
         <v>73</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>68</v>
@@ -1148,7 +1145,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,13 +1178,13 @@
         <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
